--- a/src/main/resources/static/files/relation.xlsx
+++ b/src/main/resources/static/files/relation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14560"/>
+    <workbookView windowWidth="30240" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/src/main/resources/static/files/relation.xlsx
+++ b/src/main/resources/static/files/relation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="38">
   <si>
     <t>头实体</t>
   </si>
@@ -107,7 +107,7 @@
     <t>特斯拉</t>
   </si>
   <si>
-    <t>蔚蓝</t>
+    <t>比亚迪</t>
   </si>
   <si>
     <t>居住于</t>
@@ -135,39 +135,6 @@
   </si>
   <si>
     <t>籍贯</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>13岁</t>
-  </si>
-  <si>
-    <t>24岁</t>
-  </si>
-  <si>
-    <t>35岁</t>
-  </si>
-  <si>
-    <t>40岁</t>
-  </si>
-  <si>
-    <t>体重</t>
-  </si>
-  <si>
-    <t>50KG</t>
-  </si>
-  <si>
-    <t>56KG</t>
-  </si>
-  <si>
-    <t>60KG</t>
-  </si>
-  <si>
-    <t>59KG</t>
-  </si>
-  <si>
-    <t>购买</t>
   </si>
   <si>
     <t>归属</t>
@@ -1322,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1757,224 +1724,87 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
+      <c r="D26" t="s">
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
